--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-observation-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:49:32+00:00</t>
+    <t>2022-08-09T12:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -734,7 +734,7 @@
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimin`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -855,7 +855,7 @@
 そのobservationは真だと言える責任者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1339,7 +1339,7 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobserbationは、グループのメンバーとしてターゲットを含むグループobserbation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
+このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
